--- a/data/all_star.xlsx
+++ b/data/all_star.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\NBA_fantasy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Projects\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A9E17E-4A1D-4359-80C5-6DBC9CDF59F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23988" yWindow="588" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="585" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="all_star" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="99">
   <si>
     <t>schedule</t>
   </si>
@@ -39,9 +38,6 @@
     <t>against</t>
   </si>
   <si>
-    <t>week_18</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
@@ -162,15 +158,9 @@
     <t>@CHA</t>
   </si>
   <si>
-    <t>NYK</t>
-  </si>
-  <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>BRO</t>
-  </si>
-  <si>
     <t>@MIL</t>
   </si>
   <si>
@@ -183,9 +173,6 @@
     <t>@PHI</t>
   </si>
   <si>
-    <t>@NYK</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -198,15 +185,9 @@
     <t>ATL</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
     <t>@MIN</t>
   </si>
   <si>
-    <t>@MIA</t>
-  </si>
-  <si>
     <t>ORL</t>
   </si>
   <si>
@@ -258,45 +239,21 @@
     <t>HOU</t>
   </si>
   <si>
-    <t>@OKL</t>
-  </si>
-  <si>
-    <t>@GSW</t>
-  </si>
-  <si>
     <t>@POR</t>
   </si>
   <si>
-    <t>UTA</t>
-  </si>
-  <si>
     <t>CHI</t>
   </si>
   <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
-    <t>@PHX</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>NOP</t>
-  </si>
-  <si>
     <t>@DAL</t>
   </si>
   <si>
-    <t>@BRO</t>
-  </si>
-  <si>
-    <t>PHX</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
@@ -312,25 +269,64 @@
     <t>IND</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>OKL</t>
-  </si>
-  <si>
     <t>@SAC</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
     <t>@DET</t>
+  </si>
+  <si>
+    <t>week_17</t>
+  </si>
+  <si>
+    <t>@BKN</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>@NY</t>
+  </si>
+  <si>
+    <t>@GS</t>
+  </si>
+  <si>
+    <t>@NO</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>@PHO</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>@OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>@HOU</t>
+  </si>
+  <si>
+    <t>GS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -666,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -674,202 +670,202 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>50</v>
@@ -877,1014 +873,1017 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>76</v>
@@ -1892,1890 +1891,1914 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C161">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E184" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" t="s">
-        <v>96</v>
+        <v>11</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C194">
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C195">
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C196">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C197">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C198">
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C199">
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C200">
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C201">
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
         <v>76</v>
@@ -3783,625 +3806,628 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C202">
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C203">
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C204">
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C205">
         <v>4</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C206">
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C207">
         <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C208">
         <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C209">
         <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C218">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C219">
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C220">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C221">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C222">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C223">
         <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C224">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C225">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>14</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C226">
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="E226" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C227">
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="E228" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C229">
         <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C231">
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C232">
         <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
-      </c>
-      <c r="E232" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C233">
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C234">
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C235">
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C236">
         <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C237">
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C238">
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C239">
         <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C240">
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C241">
         <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>14</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
